--- a/data/Data for web team 2021 v1.xlsx
+++ b/data/Data for web team 2021 v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csgorg-my.sharepoint.com/personal/mroberts_csg_org/Documents/Desktop/csgjc/repos/cc_survey/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="374" documentId="11_4FCF359279C2A1690B6E6835E44EFE6E68AEB43D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{DFCF6CA3-CF93-4A80-9492-69136FFF1B08}"/>
+  <xr:revisionPtr revIDLastSave="375" documentId="11_4FCF359279C2A1690B6E6835E44EFE6E68AEB43D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{559C4112-A484-4ED2-8ADA-013F0B4F1862}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admissions 2018-Corrected" sheetId="1" r:id="rId1"/>
@@ -38969,7 +38969,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:IV63"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -39886,7 +39888,7 @@
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>62</v>
@@ -43419,7 +43421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6954B37-E2C6-4B68-8B1C-CF292EB66EEA}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -44122,15 +44124,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085A98439AFA81E498F77D25C786519F4" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2eee30f09807eeac4a01227db7fe7da3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="761c6e68-1cb6-4689-a9f8-1fc6e959a784" xmlns:ns3="92180e4e-06c3-4953-9d7f-e8282e53295e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="12701c335ef03a3ee46b176a305484f3" ns2:_="" ns3:_="">
     <xsd:import namespace="761c6e68-1cb6-4689-a9f8-1fc6e959a784"/>
@@ -44341,6 +44334,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28AF7866-3992-45B4-9764-3FF39FD33CFF}">
   <ds:schemaRefs>
@@ -44359,14 +44361,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDF3EFDD-5B69-4990-915C-5FBC000951BA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61908B07-54D0-41B3-8455-6EB578778097}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44383,4 +44377,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDF3EFDD-5B69-4990-915C-5FBC000951BA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>